--- a/webscraping_despesas.xlsx
+++ b/webscraping_despesas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,6305 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>fornecedor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>valor</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Teixeira</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11670.1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1723939200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nunes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17394.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1726358400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Moura S/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19787.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1724284800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Barros</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2159.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1725235200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mendes - EI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7390.2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1738454400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>da Rocha Vargas - EI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5786.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1736294400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sá - EI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12713.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1722988800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11286.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1723248000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>398.2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1718755200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cirino</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10511.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1738108800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14855</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1739404800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dias</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14020.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1729728000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sá</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15504.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1722297600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cassiano</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10878.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1746489600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Andrade Vieira S.A.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6450.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1738108800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1738713600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>585.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1718755200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Viana - ME</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15605.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1725494400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cardoso</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11327.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1717113600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Novaes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6849.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1716940800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Machado Carvalho S/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>814.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1746230400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Andrade e Filhos</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7317.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1720396800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Borges</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12181.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1743638400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8180.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1729123200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Vasconcelos</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13129.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1728777600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pimenta</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10062.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1716076800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Camargo Ltda.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1723420800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Dias</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16226.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1740528000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nogueira Silva - ME</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>18045.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1719100800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Caldeira</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2865.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1738800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Vieira e Filhos</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>11102.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1738195200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>da Mata</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>570.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1727308800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ferreira</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>17704.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1745539200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>da Rocha Pimenta Ltda.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14585.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1741046400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>da Rosa</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7343.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1740787200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Freitas - EI</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10928.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1740960000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Pastor S/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15462.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731110400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nogueira</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1738800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Almeida Cassiano Ltda.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2811.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1724198400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cardoso</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16353.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1733011200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Vieira Melo Ltda.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18495.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1742256000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ramos</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15122.3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1733702400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Albuquerque S.A.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2217.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1741564800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14763.4</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1738540800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Nunes</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1161.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1726704000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>18025.9</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1723593600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>da Cruz</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16620.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1723766400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Macedo Cardoso - ME</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16557.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1726444800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7099.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1745020800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Jesus - ME</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>9967.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1721433600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Freitas</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14058.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1724976000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2001.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1734652800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Albuquerque</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1544.1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1742860800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Gonçalves</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1396.9</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1728777600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Brito</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>12514.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1745712000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14002.1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1740528000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Melo</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2580.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1717027200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Gomes - ME</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10157.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1736985600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fonseca Almeida - ME</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>9420.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1737072000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Fogaça</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>190090</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1735776000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Andrade</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>7465.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1741651200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mendes Ribeiro S/A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5058.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1724716800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14912.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1725667200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>9944.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1741824000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Oliveira</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>11993.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1728777600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Carvalho</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>12754.6</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1728172800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>11939.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1735862400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Pastor S/A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>45438.4</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1730160000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Andrade</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15100.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1741305600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Leão Montenegro - EI</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9473.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1745280000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rodrigues Rios e Filhos</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>11648.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1730160000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>382.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1738454400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cavalcante S/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>124.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1745712000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rocha Pastor Ltda.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1725753600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>12467.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1720396800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sales da Luz e Filhos</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13833.9</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1724716800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Lopes Rezende - EI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14771.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1733616000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Andrade Cavalcanti e Filhos</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>12378.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1720310400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>da Conceição</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>12485.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1718755200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Albuquerque</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>15302.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1738540800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19009.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1737417600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>da Rocha - ME</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>7567.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1745539200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Martins Porto S.A.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4637.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1739923200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7786.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1725148800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Rios Pereira Ltda.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5229.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1718668800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Viana Martins - ME</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1259.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1742515200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Correia</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>18061.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1732233600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Jesus Viana S/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1017.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1723420800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Nogueira</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12768</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1744934400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Nogueira Rodrigues S/A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>17475.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1734912000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1717891200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>11478.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1719446400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Camargo - ME</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4389.2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1730419200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Novais</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>6312.57</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1744329600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Novaes Ltda.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>15524</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1726617600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Nunes S.A.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1221.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1718755200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Oliveira - EI</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11497</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1715990400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Alves - ME</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>16618.39</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1725667200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>da Rocha Guerra S/A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1478.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1737504000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Viana</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>8574.59</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1730246400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Borges - EI</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4267.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1724889600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Siqueira e Filhos</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10186.55</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1743984000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Martins</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6249.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1717632000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cardoso</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13418.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1730246400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fogaça</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2839.29</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1727481600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Machado S.A.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>17022</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1715126400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fogaça - EI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>110.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1718409600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Peixoto</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>14151.6</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1734739200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>da Rosa</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11835.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1740873600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Albuquerque Rios - ME</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1740182400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Almeida</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3302.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731542400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Silveira</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2490.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1726099200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1124.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1745452800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Rocha</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>11116.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1740787200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Pacheco</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2130.71</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1739664000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cardoso - ME</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>17243.94</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1746057600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Nogueira</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>8964.76</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1742083200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Sá</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>8827.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1718496000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Santos - ME</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3908.4</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1729209600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>16609.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1739750400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Farias - EI</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>16317.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1719360000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Gonçalves</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>6990.84</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1718841600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>15433.59</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1729641600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>da Cruz</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1746230400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cardoso - ME</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>8845.4</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1742428800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Farias</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>15974.01</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1715558400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Fonseca S/A</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>39788.7</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1729728000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Moura e Filhos</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10079.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1728345600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Dias S.A.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2048.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1729555200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ferreira - ME</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>14398.71</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1725235200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Costa</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>19582.17</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1718841600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cavalcanti</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10108.25</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1726185600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ramos S.A.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>5593.16</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1739923200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Pimenta - EI</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>9888.43</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1719100800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>15776.4</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1718755200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ferreira e Filhos</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>8073.66</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1742860800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sá</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>6052.29</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1722643200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Aragão</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>18719.07</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1734739200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Montenegro Santos S/A</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>16028.2</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1745193600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Alves e Filhos</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1719446400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>da Cunha</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>17633.26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1742860800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Viana - ME</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>103679.4</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1717804800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Farias</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>6803.42</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1743897600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Barros Castro - ME</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>19363.1</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1742083200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Macedo Farias e Filhos</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>17949.97</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1715299200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Nunes</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>12982.56</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1736726400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Nogueira</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>18391.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1734825600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sales - EI</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>101064.7</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1721088000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Siqueira Brito S/A</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>10273.8</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1720310400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>da Cruz</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1323.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1729641600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Alves</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>11345.68</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1721779200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Nogueira</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>12213.03</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1729036800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sá</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1733097600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>4089.79</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1736294400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>9150.05</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1732060800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Macedo Azevedo Ltda.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>16694.14</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1717718400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Câmara</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>5352.15</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1722038400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>9099.54</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1723075200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>da Rocha Ltda.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>8751.02</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1722038400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Pastor</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1884.31</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1722384000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Santos S/A</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>96075.5</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1741737600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Moraes</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2465.76</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1715990400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Cardoso</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>12551.21</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1723075200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Pimenta</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>13777.95</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1725494400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Nunes</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>12352.28</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1721692800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Gonçalves</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>10291.67</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1745798400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Teixeira Costa - EI</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>15065.96</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1720828800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>19831.62</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1731456000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>da Costa S.A.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>16451.39</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1726444800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>18342.52</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1738281600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Costela</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>965.46</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1744761600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Ferreira Rezende S/A</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>14432.77</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1724025600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Câmara e Filhos</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>15566.04</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1734048000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Lopes - EI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>3773.75</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1720828800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Vargas Costa S.A.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>16309.76</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1744416000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Cassiano - ME</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>6071.89</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1719360000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Aragão</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>12306.04</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1718323200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Azevedo Rocha S/A</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>5194.28</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1736208000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Casa Grande Fogaça S/A</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>9798.56</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1744761600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Barbosa e Filhos</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>6962.14</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1730419200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Almeida</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1730678400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Fonseca S/A</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>3003.23</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1716163200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>da Cunha</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2345.28</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1745971200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>da Rocha Fogaça S.A.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>6218.49</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1740096000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Cassiano</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2372.55</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1740182400000</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Nunes Garcia Ltda.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1536.6</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1739059200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>da Rocha Santos Ltda.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1026.1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1717200000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Rezende Ltda.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>19110.08</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1744675200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Carvalho Câmara e Filhos</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>11426.16</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1743811200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Monteiro Novaes S.A.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>13550.61</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1733616000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Borges</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>4004.41</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1732147200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>14586.97</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1733356800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Garcia Ltda.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>8588.8</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1715040000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Martins Nascimento - ME</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2275.15</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1744329600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Freitas Albuquerque - EI</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>18170.31</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1724112000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Energia</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>da Cunha Mendes e Filhos</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>15225.1</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1727913600000</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Pires e Filhos</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>16460.68</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1721347200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Nascimento</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>12795.28</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1729987200000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Compra Matéria-prima</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>da Costa</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>9634.17</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1723852800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Produção</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Porto - ME</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>13022</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1741564800000</t>
         </is>
       </c>
     </row>
